--- a/biology/Botanique/Artabotrys_insignis/Artabotrys_insignis.xlsx
+++ b/biology/Botanique/Artabotrys_insignis/Artabotrys_insignis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artabotrys insignis Engl. &amp; Diels est une espèce de plantes lianeuses de la famille des Annonaceae et du genre Artabotrys, selon la classification phylogénétique. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liane se développe dans les forêts tropicales humides d'Afrique [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liane se développe dans les forêts tropicales humides d'Afrique .
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 juillet 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 juillet 2017) :
 variété Artabotrys insignis var. concolor
 variété Artabotrys insignis var. insignis
-Selon The Plant List            (25 juillet 2017)[1] :
+Selon The Plant List            (25 juillet 2017) :
 variété Artabotrys insignis var. concolor (Pellegr.) Le Thomas
-Selon Tropicos                                           (25 juillet 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Artabotrys insignis var. batesii Le Thomas
 variété Artabotrys insignis var. concolor Le Thomas
 variété Artabotrys insignis var. insignis
@@ -581,9 +597,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce batesii est endémique du Cameroun, très rare. Elle a été collectée George Latimer Bates dans la Région du Sud, à Bitye près de la rivière Dja[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce batesii est endémique du Cameroun, très rare. Elle a été collectée George Latimer Bates dans la Région du Sud, à Bitye près de la rivière Dja. 
 </t>
         </is>
       </c>
